--- a/temp-excel.xlsx
+++ b/temp-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="173">
   <si>
     <t>date</t>
   </si>
@@ -40,30 +40,39 @@
     <t>phoneNumber</t>
   </si>
   <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699036655336-3729</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>retevin joji</t>
+  </si>
+  <si>
+    <t>kottayam</t>
+  </si>
+  <si>
+    <t>njaralla</t>
+  </si>
+  <si>
+    <t>686582</t>
+  </si>
+  <si>
+    <t>79029665815</t>
+  </si>
+  <si>
+    <t>ORD-1699043118217-2836</t>
+  </si>
+  <si>
     <t>03/11/2023</t>
   </si>
   <si>
     <t>ORD-1698954432997-1460</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>retevin joji</t>
-  </si>
-  <si>
-    <t>kottayam</t>
-  </si>
-  <si>
-    <t>njaralla</t>
-  </si>
-  <si>
-    <t>686582</t>
-  </si>
-  <si>
-    <t>79029665815</t>
-  </si>
-  <si>
     <t>ORD-1698954638534-1927</t>
   </si>
   <si>
@@ -97,10 +106,430 @@
     <t>ORD-1698959116838-1241</t>
   </si>
   <si>
-    <t>ORD-1698987496851-5000</t>
-  </si>
-  <si>
     <t>ORD-1698988000139-8869</t>
+  </si>
+  <si>
+    <t>ORD-1699024015215-7209</t>
+  </si>
+  <si>
+    <t>02/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698929211397-8830</t>
+  </si>
+  <si>
+    <t>ORD-1698936787777-7380</t>
+  </si>
+  <si>
+    <t>ORD-1698948915346-1454</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698781081512-1943</t>
+  </si>
+  <si>
+    <t>ORD-1698824789122-7179</t>
+  </si>
+  <si>
+    <t>ORD-1698829002869-2617</t>
+  </si>
+  <si>
+    <t>ORD-1698838582298-4376</t>
+  </si>
+  <si>
+    <t>ORD-1698841656683-2507</t>
+  </si>
+  <si>
+    <t>ORD-1698841714902-2342</t>
+  </si>
+  <si>
+    <t>ORD-1698855358168-8787</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698729471382-7658</t>
+  </si>
+  <si>
+    <t>ORD-1698729808888-4102</t>
+  </si>
+  <si>
+    <t>ORD-1698729849270-5108</t>
+  </si>
+  <si>
+    <t>ORD-1698730780957-5818</t>
+  </si>
+  <si>
+    <t>ORD-1698730884423-8386</t>
+  </si>
+  <si>
+    <t>ORD-1698730926021-85</t>
+  </si>
+  <si>
+    <t>ORD-1698731882320-2288</t>
+  </si>
+  <si>
+    <t>ORD-1698732149831-5434</t>
+  </si>
+  <si>
+    <t>ORD-1698732592317-5867</t>
+  </si>
+  <si>
+    <t>ORD-1698733417636-2102</t>
+  </si>
+  <si>
+    <t>ORD-1698734037423-1824</t>
+  </si>
+  <si>
+    <t>ORD-1698734236270-8736</t>
+  </si>
+  <si>
+    <t>ORD-1698735394379-9869</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ORD-1698749002906-1778</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698614437214-6810</t>
+  </si>
+  <si>
+    <t>asdffgtgrtthyth</t>
+  </si>
+  <si>
+    <t>ORD-1698661647881-1473</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698517958806-1254</t>
+  </si>
+  <si>
+    <t>ORD-1698565519892-1923</t>
+  </si>
+  <si>
+    <t>ORD-1698573056799-7299</t>
+  </si>
+  <si>
+    <t>ORD-1698573860121-2103</t>
+  </si>
+  <si>
+    <t>ORD-1698575322371-9610</t>
+  </si>
+  <si>
+    <t>ORD-1698577554646-2067</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698438193172-3934</t>
+  </si>
+  <si>
+    <t>ORD-1698438246760-8112</t>
+  </si>
+  <si>
+    <t>ORD-1698438392114-4088</t>
+  </si>
+  <si>
+    <t>ORD-1698438584901-7312</t>
+  </si>
+  <si>
+    <t>ORD-1698438791810-5044</t>
+  </si>
+  <si>
+    <t>ORD-1698438968805-4332</t>
+  </si>
+  <si>
+    <t>ORD-1698439187752-1679</t>
+  </si>
+  <si>
+    <t>ORD-1698439232691-6924</t>
+  </si>
+  <si>
+    <t>ORD-1698439330982-207</t>
+  </si>
+  <si>
+    <t>ORD-1698439331492-3487</t>
+  </si>
+  <si>
+    <t>ORD-1698469133264-5770</t>
+  </si>
+  <si>
+    <t>ORD-1698469351002-5529</t>
+  </si>
+  <si>
+    <t>ORD-1698469468386-2255</t>
+  </si>
+  <si>
+    <t>ORD-1698469570165-1193</t>
+  </si>
+  <si>
+    <t>ORD-1698469729411-8627</t>
+  </si>
+  <si>
+    <t>ORD-1698469841736-7946</t>
+  </si>
+  <si>
+    <t>ORD-1698470090101-6518</t>
+  </si>
+  <si>
+    <t>ORD-1698470224748-107</t>
+  </si>
+  <si>
+    <t>ORD-1698470547351-5269</t>
+  </si>
+  <si>
+    <t>ORD-1698470710854-2727</t>
+  </si>
+  <si>
+    <t>ORD-1698470984191-9470</t>
+  </si>
+  <si>
+    <t>ORD-1698475545024-787</t>
+  </si>
+  <si>
+    <t>ORD-1698475725120-722</t>
+  </si>
+  <si>
+    <t>ORD-1698475788730-1276</t>
+  </si>
+  <si>
+    <t>ORD-1698475951733-8778</t>
+  </si>
+  <si>
+    <t>ORD-1698476217826-4263</t>
+  </si>
+  <si>
+    <t>ORD-1698476462700-934</t>
+  </si>
+  <si>
+    <t>ORD-1698509753874-9749</t>
+  </si>
+  <si>
+    <t>ORD-1698510170510-2385</t>
+  </si>
+  <si>
+    <t>ORD-1698510410525-4812</t>
+  </si>
+  <si>
+    <t>ORD-1698510653722-4497</t>
+  </si>
+  <si>
+    <t>ORD-1698510755429-6553</t>
+  </si>
+  <si>
+    <t>ORD-1698511807365-1887</t>
+  </si>
+  <si>
+    <t>ORD-1698512139280-1659</t>
+  </si>
+  <si>
+    <t>ORD-1698512188973-888</t>
+  </si>
+  <si>
+    <t>ORD-1698512287427-7638</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698378524482-6155</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ORD-1698379186592-7928</t>
+  </si>
+  <si>
+    <t>ORD-1698379471646-7673</t>
+  </si>
+  <si>
+    <t>ORD-1698379539671-1174</t>
+  </si>
+  <si>
+    <t>ORD-1698379751902-3274</t>
+  </si>
+  <si>
+    <t>ORD-1698379889567-8672</t>
+  </si>
+  <si>
+    <t>ORD-1698390199167-4106</t>
+  </si>
+  <si>
+    <t>ORD-1698390492915-8966</t>
+  </si>
+  <si>
+    <t>ORD-1698390618468-474</t>
+  </si>
+  <si>
+    <t>ORD-1698391020358-3867</t>
+  </si>
+  <si>
+    <t>ORD-1698391576290-7365</t>
+  </si>
+  <si>
+    <t>ORD-1698391630220-5240</t>
+  </si>
+  <si>
+    <t>ORD-1698394232767-4350</t>
+  </si>
+  <si>
+    <t>ORD-1698394851373-9939</t>
+  </si>
+  <si>
+    <t>ORD-1698395438466-4108</t>
+  </si>
+  <si>
+    <t>ORD-1698395534123-2944</t>
+  </si>
+  <si>
+    <t>ORD-1698396182285-9525</t>
+  </si>
+  <si>
+    <t>ORD-1698396269933-559</t>
+  </si>
+  <si>
+    <t>ORD-1698396337890-9103</t>
+  </si>
+  <si>
+    <t>ORD-1698412214805-7890</t>
+  </si>
+  <si>
+    <t>ORD-1698416317206-9914</t>
+  </si>
+  <si>
+    <t>ORD-1698416843304-2499</t>
+  </si>
+  <si>
+    <t>ORD-1698416963984-6216</t>
+  </si>
+  <si>
+    <t>ORD-1698418186697-9921</t>
+  </si>
+  <si>
+    <t>ORD-1698418369890-5061</t>
+  </si>
+  <si>
+    <t>ORD-1698418802340-1142</t>
+  </si>
+  <si>
+    <t>ORD-1698418870981-8413</t>
+  </si>
+  <si>
+    <t>ORD-1698418975448-4498</t>
+  </si>
+  <si>
+    <t>ORD-1698419496422-962</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698303514312-5813</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698217640571-4048</t>
+  </si>
+  <si>
+    <t>ORD-1698217689557-9728</t>
+  </si>
+  <si>
+    <t>ORD-1698218719818-9948</t>
+  </si>
+  <si>
+    <t>ORD-1698218771551-7351</t>
+  </si>
+  <si>
+    <t>ORD-1698221536647-6187</t>
+  </si>
+  <si>
+    <t>ORD-1698221667287-7508</t>
+  </si>
+  <si>
+    <t>ORD-1698222448761-5230</t>
+  </si>
+  <si>
+    <t>ORD-1698223167670-5976</t>
+  </si>
+  <si>
+    <t>ORD-1698223351613-491</t>
+  </si>
+  <si>
+    <t>ORD-1698223779558-3763</t>
+  </si>
+  <si>
+    <t>ORD-1698224012796-8357</t>
+  </si>
+  <si>
+    <t>ORD-1698227460094-5020</t>
+  </si>
+  <si>
+    <t>ORD-1698227645856-2324</t>
+  </si>
+  <si>
+    <t>ORD-1698228781694-2040</t>
+  </si>
+  <si>
+    <t>ORD-1698230532831-8842</t>
+  </si>
+  <si>
+    <t>ORD-1698235924679-2809</t>
+  </si>
+  <si>
+    <t>ORD-1698239430835-1977</t>
+  </si>
+  <si>
+    <t>ORD-1698240511884-7066</t>
+  </si>
+  <si>
+    <t>ORD-1698240577592-9751</t>
+  </si>
+  <si>
+    <t>ORD-1698240964288-8723</t>
+  </si>
+  <si>
+    <t>ORD-1698241123415-3709</t>
+  </si>
+  <si>
+    <t>ORD-1698243819624-9021</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698169163138-3313</t>
+  </si>
+  <si>
+    <t>ORD-1698169908500-7338</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1697711142945-4423</t>
+  </si>
+  <si>
+    <t>erattupetta</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>790295815</t>
   </si>
 </sst>
 </file>
@@ -477,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I140"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -525,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7191</v>
+        <v>31302</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -554,7 +983,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>7990</v>
+        <v>10434</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -577,13 +1006,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>34780</v>
+        <v>7191</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -606,10 +1035,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>7990</v>
@@ -635,13 +1064,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>3478</v>
+        <v>34780</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -664,13 +1093,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>34780</v>
+        <v>7990</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -693,13 +1122,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>7191</v>
+        <v>3478</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -722,13 +1151,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>7990</v>
+        <v>34780</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -751,13 +1180,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>7990</v>
+        <v>7191</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -780,13 +1209,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>34780</v>
+        <v>7990</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -809,10 +1238,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>7990</v>
@@ -838,13 +1267,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>5990</v>
+        <v>34780</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -867,13 +1296,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>34780</v>
+        <v>7990</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -896,31 +1325,3653 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
+        <v>5990</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
         <v>3478</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>34780</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>79990</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>15998</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>4990</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>134770</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>47837</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>4990</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>1996</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>27824</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>34780</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>897</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>897</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>2691</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>897</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>598</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>598</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>1485</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>2044</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>2920</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>10910</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>3785</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>3999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>299</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>2691</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44">
+        <v>71967</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>15706</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>2990</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>42980</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>37770</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>2691</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>3685</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>2990</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>1990</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>2691</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>29985</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>299</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>299</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>2392</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>1692</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>1692</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>2093</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>1990</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>2392</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>2990</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>2392</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>297</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>299</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>2691</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>199</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>29167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>75240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>299</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>299</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>299</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>299</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>2392</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>2392</v>
+      </c>
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>2392</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>33982</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>2392</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>2392</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>50776</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
+        <v>2093</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83">
+        <v>2691</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84">
+        <v>39990</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85">
+        <v>2691</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86">
+        <v>299</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87">
+        <v>299</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88">
+        <v>2990</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>111</v>
+      </c>
+      <c r="H88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89">
+        <v>2691</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90">
+        <v>2093</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" t="s">
+        <v>111</v>
+      </c>
+      <c r="G90" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91">
+        <v>39990</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" t="s">
+        <v>111</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92">
+        <v>37770</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H92" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93">
+        <v>2691</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94">
+        <v>2970</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" t="s">
+        <v>111</v>
+      </c>
+      <c r="G94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95">
+        <v>2990</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96">
+        <v>46458</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
+      <c r="G96" t="s">
+        <v>111</v>
+      </c>
+      <c r="H96" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97">
+        <v>19995</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" t="s">
+        <v>111</v>
+      </c>
+      <c r="G97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H97" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98">
+        <v>1196</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" t="s">
+        <v>111</v>
+      </c>
+      <c r="G98" t="s">
+        <v>111</v>
+      </c>
+      <c r="H98" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99">
+        <v>199</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" t="s">
+        <v>111</v>
+      </c>
+      <c r="G99" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" t="s">
+        <v>111</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100">
+        <v>1495</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" t="s">
+        <v>111</v>
+      </c>
+      <c r="G100" t="s">
+        <v>111</v>
+      </c>
+      <c r="H100" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101">
+        <v>897</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" t="s">
+        <v>111</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102">
+        <v>2990</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" t="s">
+        <v>111</v>
+      </c>
+      <c r="H102" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103">
+        <v>1495</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" t="s">
+        <v>111</v>
+      </c>
+      <c r="H103" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104">
+        <v>299</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" t="s">
+        <v>111</v>
+      </c>
+      <c r="H104" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105">
+        <v>2990</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" t="s">
+        <v>111</v>
+      </c>
+      <c r="G105" t="s">
+        <v>111</v>
+      </c>
+      <c r="H105" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106">
+        <v>2990</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" t="s">
+        <v>111</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107">
+        <v>34780</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>111</v>
+      </c>
+      <c r="F107" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" t="s">
+        <v>111</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" t="s">
+        <v>111</v>
+      </c>
+      <c r="H108" t="s">
+        <v>111</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109">
+        <v>2990</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" t="s">
+        <v>111</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110">
+        <v>1794</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111">
+        <v>1794</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112">
+        <v>299</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113">
+        <v>598</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114">
+        <v>299</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115">
+        <v>299</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>111</v>
+      </c>
+      <c r="F115" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" t="s">
+        <v>111</v>
+      </c>
+      <c r="H115" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116">
+        <v>2691</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>111</v>
+      </c>
+      <c r="F116" t="s">
+        <v>111</v>
+      </c>
+      <c r="G116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H116" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117">
+        <v>299</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" t="s">
+        <v>111</v>
+      </c>
+      <c r="G117" t="s">
+        <v>111</v>
+      </c>
+      <c r="H117" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118">
+        <v>299</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>111</v>
+      </c>
+      <c r="F118" t="s">
+        <v>111</v>
+      </c>
+      <c r="G118" t="s">
+        <v>111</v>
+      </c>
+      <c r="H118" t="s">
+        <v>111</v>
+      </c>
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119">
+        <v>299</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119" t="s">
+        <v>111</v>
+      </c>
+      <c r="G119" t="s">
+        <v>111</v>
+      </c>
+      <c r="H119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120">
+        <v>2378</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>111</v>
+      </c>
+      <c r="F120" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" t="s">
+        <v>111</v>
+      </c>
+      <c r="H120" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121">
+        <v>897</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G121" t="s">
+        <v>111</v>
+      </c>
+      <c r="H121" t="s">
+        <v>111</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122">
+        <v>3189</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>111</v>
+      </c>
+      <c r="F122" t="s">
+        <v>111</v>
+      </c>
+      <c r="G122" t="s">
+        <v>111</v>
+      </c>
+      <c r="H122" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123">
+        <v>299</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>111</v>
+      </c>
+      <c r="F123" t="s">
+        <v>111</v>
+      </c>
+      <c r="G123" t="s">
+        <v>111</v>
+      </c>
+      <c r="H123" t="s">
+        <v>111</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124">
+        <v>297</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>111</v>
+      </c>
+      <c r="F124" t="s">
+        <v>111</v>
+      </c>
+      <c r="G124" t="s">
+        <v>111</v>
+      </c>
+      <c r="H124" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125">
+        <v>299</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>111</v>
+      </c>
+      <c r="F125" t="s">
+        <v>111</v>
+      </c>
+      <c r="G125" t="s">
+        <v>111</v>
+      </c>
+      <c r="H125" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126">
+        <v>299</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" t="s">
+        <v>111</v>
+      </c>
+      <c r="G126" t="s">
+        <v>111</v>
+      </c>
+      <c r="H126" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127">
+        <v>299</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>111</v>
+      </c>
+      <c r="F127" t="s">
+        <v>111</v>
+      </c>
+      <c r="G127" t="s">
+        <v>111</v>
+      </c>
+      <c r="H127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128">
+        <v>299</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>111</v>
+      </c>
+      <c r="F128" t="s">
+        <v>111</v>
+      </c>
+      <c r="G128" t="s">
+        <v>111</v>
+      </c>
+      <c r="H128" t="s">
+        <v>111</v>
+      </c>
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129">
+        <v>299</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>111</v>
+      </c>
+      <c r="F129" t="s">
+        <v>111</v>
+      </c>
+      <c r="G129" t="s">
+        <v>111</v>
+      </c>
+      <c r="H129" t="s">
+        <v>111</v>
+      </c>
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130">
+        <v>299</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130" t="s">
+        <v>111</v>
+      </c>
+      <c r="G130" t="s">
+        <v>111</v>
+      </c>
+      <c r="H130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131">
+        <v>299</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>111</v>
+      </c>
+      <c r="F131" t="s">
+        <v>111</v>
+      </c>
+      <c r="G131" t="s">
+        <v>111</v>
+      </c>
+      <c r="H131" t="s">
+        <v>111</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132">
+        <v>299</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>111</v>
+      </c>
+      <c r="F132" t="s">
+        <v>111</v>
+      </c>
+      <c r="G132" t="s">
+        <v>111</v>
+      </c>
+      <c r="H132" t="s">
+        <v>111</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133">
+        <v>299</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F133" t="s">
+        <v>111</v>
+      </c>
+      <c r="G133" t="s">
+        <v>111</v>
+      </c>
+      <c r="H133" t="s">
+        <v>111</v>
+      </c>
+      <c r="I133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134">
+        <v>299</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>111</v>
+      </c>
+      <c r="F134" t="s">
+        <v>111</v>
+      </c>
+      <c r="G134" t="s">
+        <v>111</v>
+      </c>
+      <c r="H134" t="s">
+        <v>111</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135">
+        <v>299</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>111</v>
+      </c>
+      <c r="F135" t="s">
+        <v>111</v>
+      </c>
+      <c r="G135" t="s">
+        <v>111</v>
+      </c>
+      <c r="H135" t="s">
+        <v>111</v>
+      </c>
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136">
+        <v>199</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>111</v>
+      </c>
+      <c r="F136" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" t="s">
+        <v>111</v>
+      </c>
+      <c r="H136" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137">
+        <v>498</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>111</v>
+      </c>
+      <c r="F137" t="s">
+        <v>111</v>
+      </c>
+      <c r="G137" t="s">
+        <v>111</v>
+      </c>
+      <c r="H137" t="s">
+        <v>111</v>
+      </c>
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138">
+        <v>2990</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>111</v>
+      </c>
+      <c r="F138" t="s">
+        <v>111</v>
+      </c>
+      <c r="G138" t="s">
+        <v>111</v>
+      </c>
+      <c r="H138" t="s">
+        <v>111</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139">
+        <v>31302</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" t="s">
+        <v>111</v>
+      </c>
+      <c r="F139" t="s">
+        <v>111</v>
+      </c>
+      <c r="G139" t="s">
+        <v>111</v>
+      </c>
+      <c r="H139" t="s">
+        <v>111</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140">
+        <v>1393</v>
+      </c>
+      <c r="D140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" t="s">
+        <v>171</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/temp-excel.xlsx
+++ b/temp-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="265">
   <si>
     <t>date</t>
   </si>
@@ -40,30 +40,267 @@
     <t>phoneNumber</t>
   </si>
   <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699936009366-6649</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>T5T665YY6</t>
+  </si>
+  <si>
+    <t>kottayam</t>
+  </si>
+  <si>
+    <t>njaralla</t>
+  </si>
+  <si>
+    <t>686582</t>
+  </si>
+  <si>
+    <t>79029665815</t>
+  </si>
+  <si>
+    <t>ORD-1699936183372-4861</t>
+  </si>
+  <si>
+    <t>ORD-1699936896652-514</t>
+  </si>
+  <si>
+    <t>ORD-1699937757153-7213</t>
+  </si>
+  <si>
+    <t>ORD-1699938033562-5706</t>
+  </si>
+  <si>
+    <t>ORD-1699940677630-7609</t>
+  </si>
+  <si>
+    <t>ORD-1699940873371-7149</t>
+  </si>
+  <si>
+    <t>ORD-1699941004742-7079</t>
+  </si>
+  <si>
+    <t>ORD-1699941186663-407</t>
+  </si>
+  <si>
+    <t>ORD-1699941518831-8765</t>
+  </si>
+  <si>
+    <t>ORD-1699941696551-5005</t>
+  </si>
+  <si>
+    <t>ORD-1699942286293-2124</t>
+  </si>
+  <si>
+    <t>ORD-1699942463990-2467</t>
+  </si>
+  <si>
+    <t>ORD-1699943147349-5029</t>
+  </si>
+  <si>
+    <t>ORD-1699943754807-3748</t>
+  </si>
+  <si>
+    <t>ORD-1699944132122-1229</t>
+  </si>
+  <si>
+    <t>ORD-1699944637094-6180</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699857956079-7000</t>
+  </si>
+  <si>
+    <t>ORD-1699879533142-9861</t>
+  </si>
+  <si>
+    <t>ORD-1699886266732-2402</t>
+  </si>
+  <si>
+    <t>ORD-1699887057547-9085</t>
+  </si>
+  <si>
+    <t>ORD-1699887217371-1278</t>
+  </si>
+  <si>
+    <t>ORD-1699887378030-1507</t>
+  </si>
+  <si>
+    <t>ORD-1699887508563-5455</t>
+  </si>
+  <si>
+    <t>ORD-1699893220315-4609</t>
+  </si>
+  <si>
+    <t>12/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699802503983-6806</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699696537508-8495</t>
+  </si>
+  <si>
+    <t>ORD-1699698429615-9563</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699555079459-8571</t>
+  </si>
+  <si>
+    <t>ORD-1699555701789-5235</t>
+  </si>
+  <si>
+    <t>ORD-1699557292934-1922</t>
+  </si>
+  <si>
+    <t>ORD-1699558717515-1883</t>
+  </si>
+  <si>
+    <t>ORD-1699596188747-1899</t>
+  </si>
+  <si>
+    <t>ORD-1699614328688-7124</t>
+  </si>
+  <si>
+    <t>ORD-1699628304422-7581</t>
+  </si>
+  <si>
+    <t>effdbg</t>
+  </si>
+  <si>
+    <t>rge</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>34546</t>
+  </si>
+  <si>
+    <t>8129586739</t>
+  </si>
+  <si>
+    <t>ORD-1699629486271-7506</t>
+  </si>
+  <si>
+    <t>NITHIN</t>
+  </si>
+  <si>
+    <t>790295815</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1699479010644-5840</t>
+  </si>
+  <si>
+    <t>ORD-1699479173171-3272</t>
+  </si>
+  <si>
+    <t>ORD-1699510611612-7572</t>
+  </si>
+  <si>
+    <t>ORD-1699510662313-9053</t>
+  </si>
+  <si>
+    <t>ORD-1699512237167-6748</t>
+  </si>
+  <si>
+    <t>ORD-1699512678827-1247</t>
+  </si>
+  <si>
+    <t>ORD-1699515733675-484</t>
+  </si>
+  <si>
+    <t>ORD-1699519366711-6336</t>
+  </si>
+  <si>
+    <t>ORD-1699519989237-2466</t>
+  </si>
+  <si>
+    <t>ORD-1699520250804-9001</t>
+  </si>
+  <si>
+    <t>ORD-1699541574577-3314</t>
+  </si>
+  <si>
+    <t>ORD-1699541629694-183</t>
+  </si>
+  <si>
+    <t>ORD-1699541927794-6504</t>
+  </si>
+  <si>
+    <t>ORD-1699542339955-8288</t>
+  </si>
+  <si>
+    <t>ORD-1699542485876-3091</t>
+  </si>
+  <si>
+    <t>ORD-1699542629998-7769</t>
+  </si>
+  <si>
+    <t>ORD-1699542863439-9196</t>
+  </si>
+  <si>
+    <t>ORD-1699543415100-9300</t>
+  </si>
+  <si>
+    <t>ORD-1699543633167-6277</t>
+  </si>
+  <si>
+    <t>ORD-1699543737222-3059</t>
+  </si>
+  <si>
+    <t>ORD-1699543866935-2048</t>
+  </si>
+  <si>
+    <t>ORD-1699544353319-661</t>
+  </si>
+  <si>
+    <t>ORD-1699547848515-2811</t>
+  </si>
+  <si>
+    <t>ORD-1699549532469-157</t>
+  </si>
+  <si>
+    <t>ORD-1699549601848-9773</t>
+  </si>
+  <si>
+    <t>ORD-1699550929658-5182</t>
+  </si>
+  <si>
+    <t>ORD-1699551631307-6180</t>
+  </si>
+  <si>
+    <t>ORD-1699552069022-264</t>
+  </si>
+  <si>
+    <t>ORD-1699552266659-6123</t>
+  </si>
+  <si>
     <t>07/11/2023</t>
   </si>
   <si>
     <t>ORD-1699297047623-6309</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>nithin joji</t>
   </si>
   <si>
-    <t>kottayam</t>
-  </si>
-  <si>
-    <t>njaralla</t>
-  </si>
-  <si>
-    <t>686582</t>
-  </si>
-  <si>
-    <t>79029665815</t>
-  </si>
-  <si>
     <t>ORD-1699313208391-2681</t>
   </si>
   <si>
@@ -164,6 +401,411 @@
   </si>
   <si>
     <t>ORD-1698948915346-1454</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698781081512-1943</t>
+  </si>
+  <si>
+    <t>ORD-1698824789122-7179</t>
+  </si>
+  <si>
+    <t>ORD-1698829002869-2617</t>
+  </si>
+  <si>
+    <t>ORD-1698838582298-4376</t>
+  </si>
+  <si>
+    <t>ORD-1698841656683-2507</t>
+  </si>
+  <si>
+    <t>ORD-1698841714902-2342</t>
+  </si>
+  <si>
+    <t>ORD-1698855358168-8787</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698729471382-7658</t>
+  </si>
+  <si>
+    <t>ORD-1698729808888-4102</t>
+  </si>
+  <si>
+    <t>ORD-1698729849270-5108</t>
+  </si>
+  <si>
+    <t>ORD-1698730780957-5818</t>
+  </si>
+  <si>
+    <t>ORD-1698730884423-8386</t>
+  </si>
+  <si>
+    <t>ORD-1698730926021-85</t>
+  </si>
+  <si>
+    <t>ORD-1698731882320-2288</t>
+  </si>
+  <si>
+    <t>ORD-1698732149831-5434</t>
+  </si>
+  <si>
+    <t>ORD-1698732592317-5867</t>
+  </si>
+  <si>
+    <t>ORD-1698733417636-2102</t>
+  </si>
+  <si>
+    <t>ORD-1698734037423-1824</t>
+  </si>
+  <si>
+    <t>ORD-1698734236270-8736</t>
+  </si>
+  <si>
+    <t>ORD-1698735394379-9869</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ORD-1698749002906-1778</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698614437214-6810</t>
+  </si>
+  <si>
+    <t>asdffgtgrtthyth</t>
+  </si>
+  <si>
+    <t>ORD-1698661647881-1473</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698517958806-1254</t>
+  </si>
+  <si>
+    <t>ORD-1698565519892-1923</t>
+  </si>
+  <si>
+    <t>ORD-1698573056799-7299</t>
+  </si>
+  <si>
+    <t>ORD-1698573860121-2103</t>
+  </si>
+  <si>
+    <t>ORD-1698575322371-9610</t>
+  </si>
+  <si>
+    <t>ORD-1698577554646-2067</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698438193172-3934</t>
+  </si>
+  <si>
+    <t>ORD-1698438246760-8112</t>
+  </si>
+  <si>
+    <t>ORD-1698438392114-4088</t>
+  </si>
+  <si>
+    <t>ORD-1698438584901-7312</t>
+  </si>
+  <si>
+    <t>ORD-1698438791810-5044</t>
+  </si>
+  <si>
+    <t>ORD-1698438968805-4332</t>
+  </si>
+  <si>
+    <t>ORD-1698439187752-1679</t>
+  </si>
+  <si>
+    <t>ORD-1698439232691-6924</t>
+  </si>
+  <si>
+    <t>ORD-1698439330982-207</t>
+  </si>
+  <si>
+    <t>ORD-1698439331492-3487</t>
+  </si>
+  <si>
+    <t>ORD-1698469133264-5770</t>
+  </si>
+  <si>
+    <t>ORD-1698469351002-5529</t>
+  </si>
+  <si>
+    <t>ORD-1698469468386-2255</t>
+  </si>
+  <si>
+    <t>ORD-1698469570165-1193</t>
+  </si>
+  <si>
+    <t>ORD-1698469729411-8627</t>
+  </si>
+  <si>
+    <t>ORD-1698469841736-7946</t>
+  </si>
+  <si>
+    <t>ORD-1698470090101-6518</t>
+  </si>
+  <si>
+    <t>ORD-1698470224748-107</t>
+  </si>
+  <si>
+    <t>ORD-1698470547351-5269</t>
+  </si>
+  <si>
+    <t>ORD-1698470710854-2727</t>
+  </si>
+  <si>
+    <t>ORD-1698470984191-9470</t>
+  </si>
+  <si>
+    <t>ORD-1698475545024-787</t>
+  </si>
+  <si>
+    <t>ORD-1698475725120-722</t>
+  </si>
+  <si>
+    <t>ORD-1698475788730-1276</t>
+  </si>
+  <si>
+    <t>ORD-1698475951733-8778</t>
+  </si>
+  <si>
+    <t>ORD-1698476217826-4263</t>
+  </si>
+  <si>
+    <t>ORD-1698476462700-934</t>
+  </si>
+  <si>
+    <t>ORD-1698509753874-9749</t>
+  </si>
+  <si>
+    <t>ORD-1698510170510-2385</t>
+  </si>
+  <si>
+    <t>ORD-1698510410525-4812</t>
+  </si>
+  <si>
+    <t>ORD-1698510653722-4497</t>
+  </si>
+  <si>
+    <t>ORD-1698510755429-6553</t>
+  </si>
+  <si>
+    <t>ORD-1698511807365-1887</t>
+  </si>
+  <si>
+    <t>ORD-1698512139280-1659</t>
+  </si>
+  <si>
+    <t>ORD-1698512188973-888</t>
+  </si>
+  <si>
+    <t>ORD-1698512287427-7638</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698378524482-6155</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ORD-1698379186592-7928</t>
+  </si>
+  <si>
+    <t>ORD-1698379471646-7673</t>
+  </si>
+  <si>
+    <t>ORD-1698379539671-1174</t>
+  </si>
+  <si>
+    <t>ORD-1698379751902-3274</t>
+  </si>
+  <si>
+    <t>ORD-1698379889567-8672</t>
+  </si>
+  <si>
+    <t>ORD-1698390199167-4106</t>
+  </si>
+  <si>
+    <t>ORD-1698390492915-8966</t>
+  </si>
+  <si>
+    <t>ORD-1698390618468-474</t>
+  </si>
+  <si>
+    <t>ORD-1698391020358-3867</t>
+  </si>
+  <si>
+    <t>ORD-1698391576290-7365</t>
+  </si>
+  <si>
+    <t>ORD-1698391630220-5240</t>
+  </si>
+  <si>
+    <t>ORD-1698394232767-4350</t>
+  </si>
+  <si>
+    <t>ORD-1698394851373-9939</t>
+  </si>
+  <si>
+    <t>ORD-1698395438466-4108</t>
+  </si>
+  <si>
+    <t>ORD-1698395534123-2944</t>
+  </si>
+  <si>
+    <t>ORD-1698396182285-9525</t>
+  </si>
+  <si>
+    <t>ORD-1698396269933-559</t>
+  </si>
+  <si>
+    <t>ORD-1698396337890-9103</t>
+  </si>
+  <si>
+    <t>ORD-1698412214805-7890</t>
+  </si>
+  <si>
+    <t>ORD-1698416317206-9914</t>
+  </si>
+  <si>
+    <t>ORD-1698416843304-2499</t>
+  </si>
+  <si>
+    <t>ORD-1698416963984-6216</t>
+  </si>
+  <si>
+    <t>ORD-1698418186697-9921</t>
+  </si>
+  <si>
+    <t>ORD-1698418369890-5061</t>
+  </si>
+  <si>
+    <t>ORD-1698418802340-1142</t>
+  </si>
+  <si>
+    <t>ORD-1698418870981-8413</t>
+  </si>
+  <si>
+    <t>ORD-1698418975448-4498</t>
+  </si>
+  <si>
+    <t>ORD-1698419496422-962</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698303514312-5813</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698217640571-4048</t>
+  </si>
+  <si>
+    <t>ORD-1698217689557-9728</t>
+  </si>
+  <si>
+    <t>ORD-1698218719818-9948</t>
+  </si>
+  <si>
+    <t>ORD-1698218771551-7351</t>
+  </si>
+  <si>
+    <t>ORD-1698221536647-6187</t>
+  </si>
+  <si>
+    <t>ORD-1698221667287-7508</t>
+  </si>
+  <si>
+    <t>ORD-1698222448761-5230</t>
+  </si>
+  <si>
+    <t>ORD-1698223167670-5976</t>
+  </si>
+  <si>
+    <t>ORD-1698223351613-491</t>
+  </si>
+  <si>
+    <t>ORD-1698223779558-3763</t>
+  </si>
+  <si>
+    <t>ORD-1698224012796-8357</t>
+  </si>
+  <si>
+    <t>ORD-1698227460094-5020</t>
+  </si>
+  <si>
+    <t>ORD-1698227645856-2324</t>
+  </si>
+  <si>
+    <t>ORD-1698228781694-2040</t>
+  </si>
+  <si>
+    <t>ORD-1698230532831-8842</t>
+  </si>
+  <si>
+    <t>ORD-1698235924679-2809</t>
+  </si>
+  <si>
+    <t>ORD-1698239430835-1977</t>
+  </si>
+  <si>
+    <t>ORD-1698240511884-7066</t>
+  </si>
+  <si>
+    <t>ORD-1698240577592-9751</t>
+  </si>
+  <si>
+    <t>ORD-1698240964288-8723</t>
+  </si>
+  <si>
+    <t>ORD-1698241123415-3709</t>
+  </si>
+  <si>
+    <t>ORD-1698243819624-9021</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1698169163138-3313</t>
+  </si>
+  <si>
+    <t>ORD-1698169908500-7338</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>ORD-1697711142945-4423</t>
+  </si>
+  <si>
+    <t>erattupetta</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
 </sst>
 </file>
@@ -540,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I217"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -588,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>5100</v>
+        <v>3318.5</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -617,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>6000</v>
+        <v>24324.75</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -646,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>42000</v>
+        <v>9920.95</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -675,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>2495</v>
+        <v>8220.95</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -704,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2920</v>
+        <v>1166</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -733,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>60850</v>
+        <v>8237.85</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -762,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>120249.5</v>
+        <v>1391.5</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -791,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>1168</v>
+        <v>8220.95</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -814,19 +1456,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10">
-        <v>31302</v>
+        <v>1166</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -843,19 +1485,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>10434</v>
+        <v>3578.5</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -872,19 +1514,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>7191</v>
+        <v>10700</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -901,19 +1543,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>799</v>
+        <v>15950</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -930,19 +1572,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>2485</v>
+        <v>14941</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -959,13 +1601,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>5990</v>
+        <v>15950</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -988,19 +1630,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>7191</v>
+        <v>83889.5</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1017,19 +1659,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>7990</v>
+        <v>83381</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1046,19 +1688,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
       <c r="C18">
-        <v>34780</v>
+        <v>101939.5</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1075,19 +1717,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>7990</v>
+        <v>308.7</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1104,19 +1746,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>3478</v>
+        <v>17950</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1133,19 +1775,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>34780</v>
+        <v>1129</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1162,19 +1804,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>7191</v>
+        <v>8220.95</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1191,19 +1833,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>7990</v>
+        <v>8220.95</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1220,19 +1862,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>7990</v>
+        <v>7208.85</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1249,19 +1891,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>34780</v>
+        <v>8220.95</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1278,19 +1920,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>7990</v>
+        <v>10220.95</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1307,19 +1949,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>5990</v>
+        <v>411.6</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1336,19 +1978,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28">
-        <v>3478</v>
+        <v>1659.25</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1365,19 +2007,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29">
-        <v>34780</v>
+        <v>85185</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1400,13 +2042,13 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>79990</v>
+        <v>9700</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1429,13 +2071,13 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>15998</v>
+        <v>12855.92</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1458,25 +2100,5387 @@
         <v>50</v>
       </c>
       <c r="C32">
+        <v>1659.25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>63060</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>63100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>6400</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>31580</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>6380</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>2044</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>2920</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>292</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>292</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>292</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43">
+        <v>8500</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>292</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45">
+        <v>120000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>8500</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47">
+        <v>120000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>14920</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>292</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>120000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>1285</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <v>119980</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>11988</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>10000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55">
+        <v>8700</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56">
+        <v>1459.25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57">
+        <v>8700</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58">
+        <v>8700</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59">
+        <v>286.6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60">
+        <v>124900</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>124100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62">
+        <v>12688</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <v>12000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64">
+        <v>12000600</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65">
+        <v>12000600</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66">
+        <v>12700</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67">
+        <v>5100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68">
+        <v>6000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69">
+        <v>42000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>2495</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>2920</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>60850</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73">
+        <v>120249.5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>1168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75">
+        <v>31302</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76">
+        <v>10434</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77">
+        <v>7191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78">
+        <v>799</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>2485</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80">
+        <v>5990</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81">
+        <v>7191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82">
+        <v>7990</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83">
+        <v>34780</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84">
+        <v>7990</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85">
+        <v>3478</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86">
+        <v>34780</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87">
+        <v>7191</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88">
+        <v>7990</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89">
+        <v>7990</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90">
+        <v>34780</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>7990</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92">
+        <v>5990</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93">
+        <v>3478</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94">
+        <v>34780</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95">
+        <v>79990</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96">
+        <v>15998</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97">
         <v>499</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98">
+        <v>4990</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99">
+        <v>134770</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100">
+        <v>47837</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101">
+        <v>4990</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102">
+        <v>1996</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103">
+        <v>27824</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104">
+        <v>34780</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105">
+        <v>897</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106">
+        <v>897</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107">
+        <v>2691</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108">
+        <v>598</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109">
+        <v>897</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110">
+        <v>598</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111">
+        <v>598</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112">
+        <v>598</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113">
+        <v>1485</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+      <c r="B114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114">
+        <v>2044</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>105</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115">
+        <v>2920</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116">
+        <v>10910</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117">
+        <v>3785</v>
+      </c>
+      <c r="D117" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118">
+        <v>3999</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119">
+        <v>299</v>
+      </c>
+      <c r="D119" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120">
+        <v>2691</v>
+      </c>
+      <c r="D120" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121">
+        <v>71967</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122">
+        <v>15706</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>105</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>161</v>
+      </c>
+      <c r="C123">
+        <v>2990</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124">
+        <v>42980</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>105</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125">
+        <v>37770</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>105</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126">
+        <v>2691</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127">
+        <v>3685</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>105</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128">
+        <v>2990</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129">
+        <v>1990</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>105</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130">
+        <v>2691</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131">
+        <v>29985</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>105</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132">
+        <v>299</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>105</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133">
+        <v>299</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134">
+        <v>2392</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135">
+        <v>1692</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>105</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136">
+        <v>1692</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" t="s">
+        <v>176</v>
+      </c>
+      <c r="C137">
+        <v>2093</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138">
+        <v>1990</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>105</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139">
+        <v>2392</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" t="s">
+        <v>105</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140">
+        <v>2990</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>105</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141">
+        <v>2392</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142">
+        <v>297</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>105</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143">
+        <v>299</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>105</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144">
+        <v>2691</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>105</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145">
+        <v>199</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>105</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" t="s">
+        <v>185</v>
+      </c>
+      <c r="C146">
+        <v>29167</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>105</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" t="s">
+        <v>186</v>
+      </c>
+      <c r="C147">
+        <v>75240</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>105</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148">
+        <v>299</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>105</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149">
+        <v>299</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>105</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150">
+        <v>299</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>105</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151">
+        <v>299</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>105</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152">
+        <v>2392</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s">
+        <v>105</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153">
+        <v>2392</v>
+      </c>
+      <c r="D153" t="s">
+        <v>152</v>
+      </c>
+      <c r="E153" t="s">
+        <v>105</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154">
+        <v>2392</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>105</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155">
+        <v>33982</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>105</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156">
+        <v>2392</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>105</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" t="s">
+        <v>196</v>
+      </c>
+      <c r="C157">
+        <v>2392</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>105</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158">
+        <v>50776</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" t="s">
+        <v>105</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159">
+        <v>2093</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" t="s">
+        <v>105</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160">
+        <v>2691</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>105</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161">
+        <v>39990</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" t="s">
+        <v>105</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>201</v>
+      </c>
+      <c r="C162">
+        <v>2691</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" t="s">
+        <v>105</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163">
+        <v>299</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" t="s">
+        <v>204</v>
+      </c>
+      <c r="F163" t="s">
+        <v>204</v>
+      </c>
+      <c r="G163" t="s">
+        <v>204</v>
+      </c>
+      <c r="H163" t="s">
+        <v>204</v>
+      </c>
+      <c r="I163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164">
+        <v>299</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" t="s">
+        <v>204</v>
+      </c>
+      <c r="F164" t="s">
+        <v>204</v>
+      </c>
+      <c r="G164" t="s">
+        <v>204</v>
+      </c>
+      <c r="H164" t="s">
+        <v>204</v>
+      </c>
+      <c r="I164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165">
+        <v>2990</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" t="s">
+        <v>204</v>
+      </c>
+      <c r="F165" t="s">
+        <v>204</v>
+      </c>
+      <c r="G165" t="s">
+        <v>204</v>
+      </c>
+      <c r="H165" t="s">
+        <v>204</v>
+      </c>
+      <c r="I165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166">
+        <v>2691</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>204</v>
+      </c>
+      <c r="F166" t="s">
+        <v>204</v>
+      </c>
+      <c r="G166" t="s">
+        <v>204</v>
+      </c>
+      <c r="H166" t="s">
+        <v>204</v>
+      </c>
+      <c r="I166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167">
+        <v>2093</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>204</v>
+      </c>
+      <c r="F167" t="s">
+        <v>204</v>
+      </c>
+      <c r="G167" t="s">
+        <v>204</v>
+      </c>
+      <c r="H167" t="s">
+        <v>204</v>
+      </c>
+      <c r="I167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168">
+        <v>39990</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>204</v>
+      </c>
+      <c r="F168" t="s">
+        <v>204</v>
+      </c>
+      <c r="G168" t="s">
+        <v>204</v>
+      </c>
+      <c r="H168" t="s">
+        <v>204</v>
+      </c>
+      <c r="I168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" t="s">
+        <v>210</v>
+      </c>
+      <c r="C169">
+        <v>37770</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" t="s">
+        <v>204</v>
+      </c>
+      <c r="G169" t="s">
+        <v>204</v>
+      </c>
+      <c r="H169" t="s">
+        <v>204</v>
+      </c>
+      <c r="I169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170">
+        <v>2691</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" t="s">
+        <v>204</v>
+      </c>
+      <c r="G170" t="s">
+        <v>204</v>
+      </c>
+      <c r="H170" t="s">
+        <v>204</v>
+      </c>
+      <c r="I170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171">
+        <v>2970</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" t="s">
+        <v>204</v>
+      </c>
+      <c r="F171" t="s">
+        <v>204</v>
+      </c>
+      <c r="G171" t="s">
+        <v>204</v>
+      </c>
+      <c r="H171" t="s">
+        <v>204</v>
+      </c>
+      <c r="I171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" t="s">
+        <v>213</v>
+      </c>
+      <c r="C172">
+        <v>2990</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" t="s">
+        <v>204</v>
+      </c>
+      <c r="F172" t="s">
+        <v>204</v>
+      </c>
+      <c r="G172" t="s">
+        <v>204</v>
+      </c>
+      <c r="H172" t="s">
+        <v>204</v>
+      </c>
+      <c r="I172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173">
+        <v>46458</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>204</v>
+      </c>
+      <c r="F173" t="s">
+        <v>204</v>
+      </c>
+      <c r="G173" t="s">
+        <v>204</v>
+      </c>
+      <c r="H173" t="s">
+        <v>204</v>
+      </c>
+      <c r="I173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174">
+        <v>19995</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
+        <v>204</v>
+      </c>
+      <c r="F174" t="s">
+        <v>204</v>
+      </c>
+      <c r="G174" t="s">
+        <v>204</v>
+      </c>
+      <c r="H174" t="s">
+        <v>204</v>
+      </c>
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175">
+        <v>1196</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" t="s">
+        <v>204</v>
+      </c>
+      <c r="F175" t="s">
+        <v>204</v>
+      </c>
+      <c r="G175" t="s">
+        <v>204</v>
+      </c>
+      <c r="H175" t="s">
+        <v>204</v>
+      </c>
+      <c r="I175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" t="s">
+        <v>217</v>
+      </c>
+      <c r="C176">
+        <v>199</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" t="s">
+        <v>204</v>
+      </c>
+      <c r="F176" t="s">
+        <v>204</v>
+      </c>
+      <c r="G176" t="s">
+        <v>204</v>
+      </c>
+      <c r="H176" t="s">
+        <v>204</v>
+      </c>
+      <c r="I176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177">
+        <v>1495</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" t="s">
+        <v>204</v>
+      </c>
+      <c r="F177" t="s">
+        <v>204</v>
+      </c>
+      <c r="G177" t="s">
+        <v>204</v>
+      </c>
+      <c r="H177" t="s">
+        <v>204</v>
+      </c>
+      <c r="I177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178">
+        <v>897</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" t="s">
+        <v>204</v>
+      </c>
+      <c r="F178" t="s">
+        <v>204</v>
+      </c>
+      <c r="G178" t="s">
+        <v>204</v>
+      </c>
+      <c r="H178" t="s">
+        <v>204</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>202</v>
+      </c>
+      <c r="B179" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179">
+        <v>2990</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" t="s">
+        <v>204</v>
+      </c>
+      <c r="F179" t="s">
+        <v>204</v>
+      </c>
+      <c r="G179" t="s">
+        <v>204</v>
+      </c>
+      <c r="H179" t="s">
+        <v>204</v>
+      </c>
+      <c r="I179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180">
+        <v>1495</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" t="s">
+        <v>204</v>
+      </c>
+      <c r="F180" t="s">
+        <v>204</v>
+      </c>
+      <c r="G180" t="s">
+        <v>204</v>
+      </c>
+      <c r="H180" t="s">
+        <v>204</v>
+      </c>
+      <c r="I180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181" t="s">
+        <v>222</v>
+      </c>
+      <c r="C181">
+        <v>299</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>204</v>
+      </c>
+      <c r="F181" t="s">
+        <v>204</v>
+      </c>
+      <c r="G181" t="s">
+        <v>204</v>
+      </c>
+      <c r="H181" t="s">
+        <v>204</v>
+      </c>
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>202</v>
+      </c>
+      <c r="B182" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182">
+        <v>2990</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>204</v>
+      </c>
+      <c r="F182" t="s">
+        <v>204</v>
+      </c>
+      <c r="G182" t="s">
+        <v>204</v>
+      </c>
+      <c r="H182" t="s">
+        <v>204</v>
+      </c>
+      <c r="I182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183" t="s">
+        <v>224</v>
+      </c>
+      <c r="C183">
+        <v>2990</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>204</v>
+      </c>
+      <c r="F183" t="s">
+        <v>204</v>
+      </c>
+      <c r="G183" t="s">
+        <v>204</v>
+      </c>
+      <c r="H183" t="s">
+        <v>204</v>
+      </c>
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s">
+        <v>225</v>
+      </c>
+      <c r="C184">
+        <v>34780</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
+        <v>204</v>
+      </c>
+      <c r="F184" t="s">
+        <v>204</v>
+      </c>
+      <c r="G184" t="s">
+        <v>204</v>
+      </c>
+      <c r="H184" t="s">
+        <v>204</v>
+      </c>
+      <c r="I184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" t="s">
+        <v>226</v>
+      </c>
+      <c r="C185">
+        <v>299</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s">
+        <v>204</v>
+      </c>
+      <c r="F185" t="s">
+        <v>204</v>
+      </c>
+      <c r="G185" t="s">
+        <v>204</v>
+      </c>
+      <c r="H185" t="s">
+        <v>204</v>
+      </c>
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" t="s">
+        <v>227</v>
+      </c>
+      <c r="C186">
+        <v>2990</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" t="s">
+        <v>204</v>
+      </c>
+      <c r="F186" t="s">
+        <v>204</v>
+      </c>
+      <c r="G186" t="s">
+        <v>204</v>
+      </c>
+      <c r="H186" t="s">
+        <v>204</v>
+      </c>
+      <c r="I186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>202</v>
+      </c>
+      <c r="B187" t="s">
+        <v>228</v>
+      </c>
+      <c r="C187">
+        <v>1794</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>105</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s">
+        <v>15</v>
+      </c>
+      <c r="I187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" t="s">
+        <v>229</v>
+      </c>
+      <c r="C188">
+        <v>1794</v>
+      </c>
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
+        <v>105</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>202</v>
+      </c>
+      <c r="B189" t="s">
+        <v>230</v>
+      </c>
+      <c r="C189">
+        <v>299</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" t="s">
+        <v>105</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" t="s">
+        <v>231</v>
+      </c>
+      <c r="C190">
+        <v>598</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" t="s">
+        <v>105</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191" t="s">
+        <v>232</v>
+      </c>
+      <c r="C191">
+        <v>299</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" t="s">
+        <v>105</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191" t="s">
+        <v>15</v>
+      </c>
+      <c r="I191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>233</v>
+      </c>
+      <c r="B192" t="s">
+        <v>234</v>
+      </c>
+      <c r="C192">
+        <v>299</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>204</v>
+      </c>
+      <c r="F192" t="s">
+        <v>204</v>
+      </c>
+      <c r="G192" t="s">
+        <v>204</v>
+      </c>
+      <c r="H192" t="s">
+        <v>204</v>
+      </c>
+      <c r="I192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>235</v>
+      </c>
+      <c r="B193" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193">
+        <v>2691</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>204</v>
+      </c>
+      <c r="F193" t="s">
+        <v>204</v>
+      </c>
+      <c r="G193" t="s">
+        <v>204</v>
+      </c>
+      <c r="H193" t="s">
+        <v>204</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>235</v>
+      </c>
+      <c r="B194" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194">
+        <v>299</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" t="s">
+        <v>204</v>
+      </c>
+      <c r="F194" t="s">
+        <v>204</v>
+      </c>
+      <c r="G194" t="s">
+        <v>204</v>
+      </c>
+      <c r="H194" t="s">
+        <v>204</v>
+      </c>
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195">
+        <v>299</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" t="s">
+        <v>204</v>
+      </c>
+      <c r="F195" t="s">
+        <v>204</v>
+      </c>
+      <c r="G195" t="s">
+        <v>204</v>
+      </c>
+      <c r="H195" t="s">
+        <v>204</v>
+      </c>
+      <c r="I195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>235</v>
+      </c>
+      <c r="B196" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196">
+        <v>299</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>204</v>
+      </c>
+      <c r="F196" t="s">
+        <v>204</v>
+      </c>
+      <c r="G196" t="s">
+        <v>204</v>
+      </c>
+      <c r="H196" t="s">
+        <v>204</v>
+      </c>
+      <c r="I196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>235</v>
+      </c>
+      <c r="B197" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197">
+        <v>2378</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" t="s">
+        <v>204</v>
+      </c>
+      <c r="F197" t="s">
+        <v>204</v>
+      </c>
+      <c r="G197" t="s">
+        <v>204</v>
+      </c>
+      <c r="H197" t="s">
+        <v>204</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>235</v>
+      </c>
+      <c r="B198" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198">
+        <v>897</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" t="s">
+        <v>204</v>
+      </c>
+      <c r="F198" t="s">
+        <v>204</v>
+      </c>
+      <c r="G198" t="s">
+        <v>204</v>
+      </c>
+      <c r="H198" t="s">
+        <v>204</v>
+      </c>
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>235</v>
+      </c>
+      <c r="B199" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199">
+        <v>3189</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>204</v>
+      </c>
+      <c r="F199" t="s">
+        <v>204</v>
+      </c>
+      <c r="G199" t="s">
+        <v>204</v>
+      </c>
+      <c r="H199" t="s">
+        <v>204</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>235</v>
+      </c>
+      <c r="B200" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200">
+        <v>299</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>204</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+      <c r="G200" t="s">
+        <v>204</v>
+      </c>
+      <c r="H200" t="s">
+        <v>204</v>
+      </c>
+      <c r="I200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>235</v>
+      </c>
+      <c r="B201" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201">
+        <v>297</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+      <c r="F201" t="s">
+        <v>204</v>
+      </c>
+      <c r="G201" t="s">
+        <v>204</v>
+      </c>
+      <c r="H201" t="s">
+        <v>204</v>
+      </c>
+      <c r="I201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>235</v>
+      </c>
+      <c r="B202" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202">
+        <v>299</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>204</v>
+      </c>
+      <c r="F202" t="s">
+        <v>204</v>
+      </c>
+      <c r="G202" t="s">
+        <v>204</v>
+      </c>
+      <c r="H202" t="s">
+        <v>204</v>
+      </c>
+      <c r="I202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>235</v>
+      </c>
+      <c r="B203" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203">
+        <v>299</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" t="s">
+        <v>204</v>
+      </c>
+      <c r="F203" t="s">
+        <v>204</v>
+      </c>
+      <c r="G203" t="s">
+        <v>204</v>
+      </c>
+      <c r="H203" t="s">
+        <v>204</v>
+      </c>
+      <c r="I203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>235</v>
+      </c>
+      <c r="B204" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204">
+        <v>299</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>204</v>
+      </c>
+      <c r="F204" t="s">
+        <v>204</v>
+      </c>
+      <c r="G204" t="s">
+        <v>204</v>
+      </c>
+      <c r="H204" t="s">
+        <v>204</v>
+      </c>
+      <c r="I204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>235</v>
+      </c>
+      <c r="B205" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205">
+        <v>299</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>204</v>
+      </c>
+      <c r="G205" t="s">
+        <v>204</v>
+      </c>
+      <c r="H205" t="s">
+        <v>204</v>
+      </c>
+      <c r="I205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>235</v>
+      </c>
+      <c r="B206" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206">
+        <v>299</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" t="s">
+        <v>204</v>
+      </c>
+      <c r="F206" t="s">
+        <v>204</v>
+      </c>
+      <c r="G206" t="s">
+        <v>204</v>
+      </c>
+      <c r="H206" t="s">
+        <v>204</v>
+      </c>
+      <c r="I206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>235</v>
+      </c>
+      <c r="B207" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207">
+        <v>299</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" t="s">
+        <v>204</v>
+      </c>
+      <c r="F207" t="s">
+        <v>204</v>
+      </c>
+      <c r="G207" t="s">
+        <v>204</v>
+      </c>
+      <c r="H207" t="s">
+        <v>204</v>
+      </c>
+      <c r="I207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>235</v>
+      </c>
+      <c r="B208" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208">
+        <v>299</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" t="s">
+        <v>204</v>
+      </c>
+      <c r="F208" t="s">
+        <v>204</v>
+      </c>
+      <c r="G208" t="s">
+        <v>204</v>
+      </c>
+      <c r="H208" t="s">
+        <v>204</v>
+      </c>
+      <c r="I208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>235</v>
+      </c>
+      <c r="B209" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209">
+        <v>299</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" t="s">
+        <v>204</v>
+      </c>
+      <c r="F209" t="s">
+        <v>204</v>
+      </c>
+      <c r="G209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H209" t="s">
+        <v>204</v>
+      </c>
+      <c r="I209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>235</v>
+      </c>
+      <c r="B210" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210">
+        <v>299</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" t="s">
+        <v>204</v>
+      </c>
+      <c r="F210" t="s">
+        <v>204</v>
+      </c>
+      <c r="G210" t="s">
+        <v>204</v>
+      </c>
+      <c r="H210" t="s">
+        <v>204</v>
+      </c>
+      <c r="I210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>235</v>
+      </c>
+      <c r="B211" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211">
+        <v>299</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" t="s">
+        <v>204</v>
+      </c>
+      <c r="F211" t="s">
+        <v>204</v>
+      </c>
+      <c r="G211" t="s">
+        <v>204</v>
+      </c>
+      <c r="H211" t="s">
+        <v>204</v>
+      </c>
+      <c r="I211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>235</v>
+      </c>
+      <c r="B212" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212">
+        <v>299</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" t="s">
+        <v>204</v>
+      </c>
+      <c r="F212" t="s">
+        <v>204</v>
+      </c>
+      <c r="G212" t="s">
+        <v>204</v>
+      </c>
+      <c r="H212" t="s">
+        <v>204</v>
+      </c>
+      <c r="I212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>235</v>
+      </c>
+      <c r="B213" t="s">
+        <v>256</v>
+      </c>
+      <c r="C213">
+        <v>199</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>204</v>
+      </c>
+      <c r="F213" t="s">
+        <v>204</v>
+      </c>
+      <c r="G213" t="s">
+        <v>204</v>
+      </c>
+      <c r="H213" t="s">
+        <v>204</v>
+      </c>
+      <c r="I213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>235</v>
+      </c>
+      <c r="B214" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214">
+        <v>498</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" t="s">
+        <v>204</v>
+      </c>
+      <c r="F214" t="s">
+        <v>204</v>
+      </c>
+      <c r="G214" t="s">
+        <v>204</v>
+      </c>
+      <c r="H214" t="s">
+        <v>204</v>
+      </c>
+      <c r="I214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>258</v>
+      </c>
+      <c r="B215" t="s">
+        <v>259</v>
+      </c>
+      <c r="C215">
+        <v>2990</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" t="s">
+        <v>204</v>
+      </c>
+      <c r="F215" t="s">
+        <v>204</v>
+      </c>
+      <c r="G215" t="s">
+        <v>204</v>
+      </c>
+      <c r="H215" t="s">
+        <v>204</v>
+      </c>
+      <c r="I215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>258</v>
+      </c>
+      <c r="B216" t="s">
+        <v>260</v>
+      </c>
+      <c r="C216">
+        <v>31302</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" t="s">
+        <v>204</v>
+      </c>
+      <c r="F216" t="s">
+        <v>204</v>
+      </c>
+      <c r="G216" t="s">
+        <v>204</v>
+      </c>
+      <c r="H216" t="s">
+        <v>204</v>
+      </c>
+      <c r="I216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>261</v>
+      </c>
+      <c r="B217" t="s">
+        <v>262</v>
+      </c>
+      <c r="C217">
+        <v>1393</v>
+      </c>
+      <c r="D217" t="s">
+        <v>152</v>
+      </c>
+      <c r="F217" t="s">
+        <v>263</v>
+      </c>
+      <c r="G217" t="s">
+        <v>264</v>
+      </c>
+      <c r="H217" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/temp-excel.xlsx
+++ b/temp-excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -40,16 +40,16 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>15/11/2023</t>
-  </si>
-  <si>
-    <t>ORD-1699987461723-8858</t>
+    <t>02/01/2024</t>
+  </si>
+  <si>
+    <t>ORD-1704214380640-3236</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>NITHIN</t>
+    <t>T5T665YY6</t>
   </si>
   <si>
     <t>kottayam</t>
@@ -61,55 +61,7 @@
     <t>686582</t>
   </si>
   <si>
-    <t>790295815</t>
-  </si>
-  <si>
-    <t>ORD-1699988834394-951</t>
-  </si>
-  <si>
-    <t>ORD-1699992744586-4233</t>
-  </si>
-  <si>
-    <t>ORD-1699993310107-7979</t>
-  </si>
-  <si>
-    <t>ORD-1699993819458-4031</t>
-  </si>
-  <si>
-    <t>asdffgtgrtthyth</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>ORD-1699993916012-2224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nithi </t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">njarsllacattu </t>
-  </si>
-  <si>
-    <t>ORD-1699995084891-1517</t>
-  </si>
-  <si>
-    <t>SreenadhS</t>
-  </si>
-  <si>
-    <t>dsfdsf</t>
-  </si>
-  <si>
-    <t>dfdsf</t>
-  </si>
-  <si>
-    <t>dsfds</t>
-  </si>
-  <si>
-    <t>7012767687</t>
+    <t>7902965815</t>
   </si>
 </sst>
 </file>
@@ -486,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -534,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>17950</v>
+        <v>411.6</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -553,180 +505,6 @@
       </c>
       <c r="I2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>3166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>10220.95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>10220.95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>16165</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>3477.85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>10595</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
